--- a/Project/project hlr.xlsx
+++ b/Project/project hlr.xlsx
@@ -440,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,9 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -815,7 +812,7 @@
   <dimension ref="B1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,11 +825,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -881,14 +878,14 @@
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="20">
+      <c r="B8" s="9">
         <v>200</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>67</v>
+      <c r="D8" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1090,7 +1087,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="5"/>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="7"/>
@@ -1192,7 +1189,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="5"/>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="7"/>
@@ -1226,7 +1223,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="21" t="s">
         <v>81</v>
       </c>
       <c r="D48" s="7"/>
@@ -1249,7 +1246,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D51" s="7"/>
